--- a/backend/fms_core/tests/valid_templates/Sample_transfer_v3_10_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Sample_transfer_v3_10_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/freezeman/backend/fms_core/tests/valid_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A2BA36-98C3-FB46-92E7-0DB314D2AE57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD391834-222E-EA4B-B2A5-01CCD429630A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="425">
   <si>
     <t>Sample Transfer Template</t>
   </si>
@@ -1325,6 +1325,18 @@
   </si>
   <si>
     <t>3.10.0</t>
+  </si>
+  <si>
+    <t>PoolContainerSource</t>
+  </si>
+  <si>
+    <t>Transfer_container_dest_1</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>Pool Test</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC710"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2388,18 +2402,32 @@
     </row>
     <row r="11" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
-      <c r="B11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>421</v>
+      </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="23"/>
       <c r="G11" s="14"/>
       <c r="H11" s="24"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
+      <c r="J11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="25">
+        <v>10</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="12" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
